--- a/requirement/src/main/resources/templates/CDOReviewWithLastAppSupplier.xlsx
+++ b/requirement/src/main/resources/templates/CDOReviewWithLastAppSupplier.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
@@ -551,7 +551,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK1" sqref="AK1:AK1048576"/>
+      <selection pane="topRight" activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -685,11 +685,14 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data" error="New SLA value should be a number" sqref="AF1:AF1048576">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data" error="CDO Quantity Override should be number" sqref="AG1:AG1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK1:AK1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
